--- a/results/case1_cut_off/sensitivity_case1_cut_off.xlsx
+++ b/results/case1_cut_off/sensitivity_case1_cut_off.xlsx
@@ -541,25 +541,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-8.31%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>3.39%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-8.94%</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0.07418806125464424</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.04444620981244104</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.07992844876568506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.04788528698207779</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -581,25 +573,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3.48%</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-9.16%</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>4.31%</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-11.36%</t>
-        </is>
+      <c r="N2" t="n">
+        <v>0.08141095127349285</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.04877345707838635</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.1006652368793243</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.06030873652029105</v>
       </c>
     </row>
     <row r="3">
@@ -610,83 +594,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-78.76%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>118.14%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.13297940116295</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-100.42%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>150.63%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1677901220837905</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-89.93%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>119.91%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.1657670325427993</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-96.78%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>129.04%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.1785934494521838</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-34.98%</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>39.36%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.02634603299584281</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-52.67%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>59.25%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.03915911063906817</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-59.31%</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>88.97%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.1940130135058644</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-73.54%</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>110.31%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.2398985106638646</v>
       </c>
     </row>
     <row r="4">
@@ -695,24 +663,20 @@
           <t>protection cover</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>67.03%</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.0677640516724542</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-75.54%</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>85.47%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.03679930285237625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-96.32%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -735,24 +699,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>31.56%</t>
-        </is>
+      <c r="J4" t="n">
+        <v>-0.04534792519139059</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-33.55%</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>47.52%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.02346312719214873</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-50.52%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -782,85 +742,53 @@
           <t>total</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-11.73%</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>42.59%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-14.95%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>54.31%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-86.78%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>111.60%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-93.39%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>120.10%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-3.42%</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>5.80%</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-5.15%</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>8.73%</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-55.83%</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>79.81%</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>-69.23%</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>98.95%</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.0677640516724542</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.13297940116295</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.03679930285237625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.1677901220837905</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07418806125464424</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.2102132423552403</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.07992844876568506</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.2264787364342616</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.04534792519139059</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.02634603299584281</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.02346312719214873</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03915911063906817</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.08141095127349285</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.2427864705842507</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1006652368793243</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.3002072471841556</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/sensitivity_case1_cut_off.xlsx
+++ b/results/case1_cut_off/sensitivity_case1_cut_off.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.07418806125464424</v>
+        <v>0.07433217595568498</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04444620981244104</v>
+        <v>-0.04453254920629009</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07992844876568506</v>
+        <v>0.07988263319520125</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04788528698207779</v>
+        <v>-0.04785783878591265</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.08141095127349285</v>
+        <v>0.08146692350679346</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.04877345707838635</v>
+        <v>-0.04880699015072833</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1006652368793243</v>
+        <v>0.100732033018611</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.06030873652029105</v>
+        <v>-0.06034875421547301</v>
       </c>
     </row>
     <row r="3">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.13297940116295</v>
+        <v>-0.1328879332894826</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.1677901220837905</v>
+        <v>-0.1676330005033106</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.1657670325427993</v>
+        <v>-0.1657243400665388</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.1785934494521838</v>
+        <v>-0.1780991407670412</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.02634603299584281</v>
+        <v>-0.02632123693301707</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-0.03915911063906817</v>
+        <v>-0.03910435564712045</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>-0.1940130135058644</v>
+        <v>-0.1939933532610093</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2398985106638646</v>
+        <v>-0.2398684524333314</v>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0677640516724542</v>
+        <v>-0.06771743941151027</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.03679930285237625</v>
+        <v>-0.03676484247071147</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.04534792519139059</v>
+        <v>-0.04530524395544939</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.02346312719214873</v>
+        <v>-0.02343031885961898</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -743,52 +743,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0677640516724542</v>
+        <v>-0.06771743941151027</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.13297940116295</v>
+        <v>-0.1328879332894826</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03679930285237625</v>
+        <v>-0.03676484247071147</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1677901220837905</v>
+        <v>-0.1676330005033106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07418806125464424</v>
+        <v>0.07433217595568498</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2102132423552403</v>
+        <v>-0.2102568892728289</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07992844876568506</v>
+        <v>0.07988263319520125</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2264787364342616</v>
+        <v>-0.2259569795529539</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04534792519139059</v>
+        <v>-0.04530524395544939</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02634603299584281</v>
+        <v>-0.02632123693301707</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02346312719214873</v>
+        <v>-0.02343031885961898</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03915911063906817</v>
+        <v>-0.03910435564712045</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08141095127349285</v>
+        <v>0.08146692350679346</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2427864705842507</v>
+        <v>-0.2428003434117377</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1006652368793243</v>
+        <v>0.100732033018611</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.3002072471841556</v>
+        <v>-0.3002172066488045</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/sensitivity_case1_cut_off.xlsx
+++ b/results/case1_cut_off/sensitivity_case1_cut_off.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.07433217595568498</v>
+        <v>0.08024245567778721</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04453254920629009</v>
+        <v>-0.04807340912547698</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07988263319520125</v>
+        <v>0.08686678213429275</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04785783878591265</v>
+        <v>-0.05204205581299929</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.08146692350679346</v>
+        <v>0.072973141517525</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.04880699015072833</v>
+        <v>-0.04371834906735531</v>
       </c>
       <c r="P2" t="n">
-        <v>0.100732033018611</v>
+        <v>0.08805855246672738</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.06034875421547301</v>
+        <v>-0.05275604770533096</v>
       </c>
     </row>
     <row r="3">
@@ -592,69 +592,69 @@
           <t>autoclave</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.1328879332894826</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.1676330005033106</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.1657243400665388</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.1780991407670412</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.02632123693301707</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.03910435564712045</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.1939933532610093</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.2398684524333314</v>
+      <c r="B3" t="n">
+        <v>-0.1811741374564213</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.232210796391994</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.2271763390852262</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.2459306284521565</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.1316614903981323</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.1897617291742317</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.1787322941119485</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.215680821344053</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06771743941151027</v>
+        <v>-0.07180698925171214</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.03676484247071147</v>
+        <v>-0.03961057376317035</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.04530524395544939</v>
+        <v>-0.04243322823589814</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.02343031885961898</v>
+        <v>-0.02128956666302602</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -743,52 +743,60 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06771743941151027</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.1328879332894826</v>
+        <v>-0.2529811267081334</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.03676484247071147</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.1676330005033106</v>
+        <v>-0.2718213701551644</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>0.07433217595568498</v>
+        <v>-0.146933883407439</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2102568892728289</v>
+        <v>-0.04807340912547698</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07988263319520125</v>
+        <v>-0.1590638463178638</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2259569795529539</v>
+        <v>-0.05204205581299929</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04530524395544939</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.02632123693301707</v>
+        <v>-0.1740947186340304</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L5" t="n">
-        <v>-0.02343031885961898</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.03910435564712045</v>
+        <v>-0.2110512958372577</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>0.08146692350679346</v>
+        <v>-0.1057591525944235</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2428003434117377</v>
+        <v>-0.04371834906735531</v>
       </c>
       <c r="P5" t="n">
-        <v>0.100732033018611</v>
+        <v>-0.1276222688773256</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.3002172066488045</v>
+        <v>-0.05275604770533096</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/sensitivity_case1_cut_off.xlsx
+++ b/results/case1_cut_off/sensitivity_case1_cut_off.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>H2S - lower%</t>
+          <t>H2I - lower%</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>H2S - upper%</t>
+          <t>H2I - upper%</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,12 +476,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>H4S - lower%</t>
+          <t>H4I - lower%</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>H4S - upper%</t>
+          <t>H4I - upper%</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -663,22 +663,22 @@
           <t>protection cover</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>-0.07180698935661746</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>-0.0396105738602542</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>-</t>
@@ -699,21 +699,21 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>-0.04243322767874524</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>-0.02128956473325982</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -742,17 +742,21 @@
           <t>total</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.07180698935661746</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1811741369904152</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.0396105738602542</v>
+        <v>-0.2529811263470326</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.2322107955633735</v>
+        <v>-0.2718213694236277</v>
       </c>
       <c r="F5" t="n">
         <v>0.07803234646998815</v>
@@ -766,17 +770,21 @@
       <c r="I5" t="n">
         <v>-0.3334873233010641</v>
       </c>
-      <c r="J5" t="n">
-        <v>-0.04243322767874524</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>-0.1316614947188439</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-0.02128956473325982</v>
+        <v>-0.1740947223975892</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M5" t="n">
-        <v>-0.1897617382435512</v>
+        <v>-0.211051302976811</v>
       </c>
       <c r="N5" t="n">
         <v>0.07138840966450216</v>
